--- a/Data/ParkirnaMesta.xlsx
+++ b/Data/ParkirnaMesta.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Slavica\Documents\MyStuff\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665"/>
   </bookViews>
   <sheets>
     <sheet name="ParkirnaMesta" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
+  <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="65001"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="109">
   <si>
     <t>Cona</t>
   </si>
   <si>
-    <t>Ime parkirišča</t>
-  </si>
-  <si>
     <t>Tržnica znotraj zapornic ***</t>
   </si>
   <si>
@@ -293,12 +286,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>01.10-30.04</t>
-  </si>
-  <si>
-    <t>01.05-30.09</t>
-  </si>
-  <si>
     <t>08-22</t>
   </si>
   <si>
@@ -308,15 +295,6 @@
     <t>notes</t>
   </si>
   <si>
-    <t>Stevilo mest</t>
-  </si>
-  <si>
-    <t>Stevilo mest za invalide</t>
-  </si>
-  <si>
-    <t>Stevio mest za električne</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -345,13 +323,37 @@
   </si>
   <si>
     <t>NovaUra</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Parking</t>
+  </si>
+  <si>
+    <t>stMest</t>
+  </si>
+  <si>
+    <t>stInvalid</t>
+  </si>
+  <si>
+    <t>stElektricni</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>10-04</t>
+  </si>
+  <si>
+    <t>05-09</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,8 +385,17 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,8 +414,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -453,11 +469,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -481,11 +513,105 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Navadno" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -764,7 +890,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -774,16 +900,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomLeft" activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" customWidth="1"/>
     <col min="5" max="5" width="9.140625" customWidth="1"/>
@@ -798,57 +924,57 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="P1" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>349</v>
@@ -860,28 +986,28 @@
         <v>2</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N2" s="1">
         <v>0</v>
@@ -890,12 +1016,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="C3" s="1">
         <v>65</v>
@@ -907,28 +1033,28 @@
         <v>0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="M3" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N3" s="1">
         <v>0.5</v>
@@ -937,12 +1063,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C4" s="1">
         <v>59</v>
@@ -954,28 +1080,28 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N4" s="1">
         <v>1</v>
@@ -986,10 +1112,10 @@
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C5" s="1">
         <v>91</v>
@@ -1001,28 +1127,28 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N5" s="1">
         <v>1</v>
@@ -1031,12 +1157,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C6" s="1">
         <v>22</v>
@@ -1048,28 +1174,28 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N6" s="1">
         <v>0.5</v>
@@ -1078,12 +1204,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C7" s="1">
         <v>110</v>
@@ -1094,29 +1220,29 @@
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>89</v>
+      <c r="F7" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N7" s="1">
         <v>0.5</v>
@@ -1125,12 +1251,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C8" s="1">
         <v>110</v>
@@ -1141,29 +1267,29 @@
       <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>90</v>
+      <c r="F8" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N8" s="1">
         <v>0.5</v>
@@ -1172,12 +1298,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C9" s="1">
         <v>435</v>
@@ -1189,28 +1315,28 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N9" s="1">
         <v>0.5</v>
@@ -1219,12 +1345,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C10" s="1">
         <v>67</v>
@@ -1236,28 +1362,28 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N10" s="1">
         <v>0</v>
@@ -1266,12 +1392,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C11" s="1">
         <v>35</v>
@@ -1283,28 +1409,28 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N11" s="1">
         <v>0.5</v>
@@ -1313,12 +1439,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C12" s="1">
         <v>84</v>
@@ -1330,28 +1456,28 @@
         <v>3</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N12" s="1">
         <v>0.5</v>
@@ -1360,12 +1486,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="C13" s="1">
         <v>39</v>
@@ -1377,28 +1503,28 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N13" s="1">
         <v>0.5</v>
@@ -1407,12 +1533,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C14" s="1">
         <v>64</v>
@@ -1424,28 +1550,28 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N14" s="1">
         <v>0.5</v>
@@ -1454,12 +1580,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="C15" s="1">
         <v>82</v>
@@ -1471,28 +1597,28 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L15" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="M15" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N15" s="1">
         <v>0.5</v>
@@ -1501,12 +1627,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="C16" s="1">
         <v>78</v>
@@ -1518,28 +1644,28 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G16" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L16" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="M16" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N16" s="1">
         <v>0.5</v>
@@ -1550,10 +1676,10 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="C17" s="1">
         <v>32</v>
@@ -1565,28 +1691,28 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N17" s="1">
         <v>0</v>
@@ -1595,12 +1721,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="C18" s="1">
         <v>130</v>
@@ -1612,28 +1738,28 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L18" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="M18" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N18" s="1">
         <v>0.5</v>
@@ -1642,12 +1768,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="C19" s="1">
         <v>408</v>
@@ -1659,28 +1785,28 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N19" s="1">
         <v>0.5</v>
@@ -1689,12 +1815,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="C20" s="1">
         <v>155</v>
@@ -1706,28 +1832,28 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N20" s="1">
         <v>0</v>
@@ -1736,12 +1862,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C21" s="1">
         <v>348</v>
@@ -1753,28 +1879,28 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N21" s="1">
         <v>0</v>
@@ -1785,10 +1911,10 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C22" s="1">
         <v>19</v>
@@ -1800,28 +1926,28 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N22" s="1">
         <v>0</v>
@@ -1832,10 +1958,10 @@
     </row>
     <row r="23" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="C23" s="1">
         <v>54</v>
@@ -1847,45 +1973,45 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N23" s="8">
         <v>1</v>
       </c>
-      <c r="O23" s="1">
-        <v>0</v>
+      <c r="O23" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="C24" s="1">
         <v>19</v>
@@ -1897,28 +2023,28 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N24" s="1">
         <v>0</v>
@@ -1929,10 +2055,10 @@
     </row>
     <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="C25" s="1">
         <v>13</v>
@@ -1944,28 +2070,28 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N25" s="1">
         <v>0</v>
@@ -1976,10 +2102,10 @@
     </row>
     <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="C26" s="1">
         <v>18</v>
@@ -1991,28 +2117,28 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N26" s="1">
         <v>0</v>
@@ -2023,10 +2149,10 @@
     </row>
     <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="C27" s="1">
         <v>18</v>
@@ -2038,28 +2164,28 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N27" s="1">
         <v>0</v>
@@ -2070,10 +2196,10 @@
     </row>
     <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="C28" s="1">
         <v>99</v>
@@ -2085,28 +2211,28 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N28" s="1">
         <v>0.5</v>
@@ -2117,10 +2243,10 @@
     </row>
     <row r="29" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="C29" s="1">
         <v>121</v>
@@ -2132,45 +2258,45 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N29" s="1">
         <v>1</v>
       </c>
-      <c r="O29" s="1">
-        <v>0</v>
+      <c r="O29" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="C30" s="1">
         <v>61</v>
@@ -2182,45 +2308,45 @@
         <v>2</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N30" s="1">
         <v>1</v>
       </c>
-      <c r="O30" s="1">
-        <v>0</v>
+      <c r="O30" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="C31" s="1">
         <v>263</v>
@@ -2232,45 +2358,45 @@
         <v>6</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N31" s="1">
         <v>1</v>
       </c>
-      <c r="O31" s="1">
-        <v>0</v>
+      <c r="O31" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="P31" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C32" s="1">
         <v>82</v>
@@ -2282,28 +2408,28 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N32" s="1">
         <v>0</v>
@@ -2312,12 +2438,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="C33" s="1">
         <v>16</v>
@@ -2329,28 +2455,28 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N33" s="1">
         <v>0</v>
@@ -2359,12 +2485,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="C34" s="1">
         <v>20</v>
@@ -2376,28 +2502,28 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N34" s="1">
         <v>0</v>
@@ -2406,12 +2532,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="C35" s="1">
         <v>250</v>
@@ -2423,45 +2549,45 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N35" s="8">
         <v>1</v>
       </c>
-      <c r="O35" s="1">
-        <v>0</v>
+      <c r="O35" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="P35" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="C36" s="1">
         <v>31</v>
@@ -2473,28 +2599,28 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N36" s="1">
         <v>0</v>
@@ -2503,12 +2629,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="C37" s="1">
         <v>115</v>
@@ -2520,28 +2646,28 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N37" s="1">
         <v>0</v>
@@ -2550,12 +2676,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="C38" s="1">
         <v>12</v>
@@ -2567,28 +2693,28 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N38" s="1">
         <v>0.5</v>
@@ -2597,12 +2723,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="C39" s="1">
         <v>53</v>
@@ -2614,28 +2740,28 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N39" s="1">
         <v>0.5</v>
@@ -2646,8 +2772,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:M1048576 P1">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>$M$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>$F$35</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>$F$23</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>$F$2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/ParkirnaMesta.xlsx
+++ b/Data/ParkirnaMesta.xlsx
@@ -521,7 +521,7 @@
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -549,66 +549,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -890,7 +830,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -901,9 +841,9 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="K36" sqref="K36"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/ParkirnaMesta.xlsx
+++ b/Data/ParkirnaMesta.xlsx
@@ -343,7 +343,7 @@
     <t>Obdobje</t>
   </si>
   <si>
-    <t>Stanje</t>
+    <t>1(24ur)</t>
   </si>
 </sst>
 </file>
@@ -663,7 +663,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -733,37 +733,11 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="25">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -816,11 +790,81 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -866,36 +910,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -931,96 +945,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1332,7 +1256,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1340,12 +1264,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1360,11 +1284,10 @@
     <col min="8" max="15" width="17.7109375" style="5" customWidth="1"/>
     <col min="16" max="16" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.42578125" customWidth="1"/>
-    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1416,14 +1339,11 @@
       <c r="Q1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="R1" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="S1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>77</v>
       </c>
@@ -1473,9 +1393,8 @@
       <c r="Q2" s="1">
         <v>1</v>
       </c>
-      <c r="R2" s="26"/>
-    </row>
-    <row r="3" spans="1:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1525,9 +1444,8 @@
       <c r="Q3" s="1">
         <v>1</v>
       </c>
-      <c r="R3" s="26"/>
-    </row>
-    <row r="4" spans="1:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1577,9 +1495,8 @@
       <c r="Q4" s="1">
         <v>1</v>
       </c>
-      <c r="R4" s="26"/>
-    </row>
-    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1629,9 +1546,8 @@
       <c r="Q5" s="1">
         <v>1</v>
       </c>
-      <c r="R5" s="26"/>
-    </row>
-    <row r="6" spans="1:19" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:18" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1649,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>82</v>
@@ -1681,9 +1597,8 @@
       <c r="Q6" s="1">
         <v>1</v>
       </c>
-      <c r="R6" s="26"/>
-    </row>
-    <row r="7" spans="1:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1733,9 +1648,8 @@
       <c r="Q7" s="1">
         <v>1</v>
       </c>
-      <c r="R7" s="26"/>
-    </row>
-    <row r="8" spans="1:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -1785,9 +1699,8 @@
       <c r="Q8" s="1">
         <v>1</v>
       </c>
-      <c r="R8" s="26"/>
-    </row>
-    <row r="9" spans="1:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -1837,9 +1750,8 @@
       <c r="Q9" s="1">
         <v>1</v>
       </c>
-      <c r="R9" s="26"/>
-    </row>
-    <row r="10" spans="1:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -1889,9 +1801,8 @@
       <c r="Q10" s="1">
         <v>1</v>
       </c>
-      <c r="R10" s="26"/>
-    </row>
-    <row r="11" spans="1:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -1941,9 +1852,8 @@
       <c r="Q11" s="1">
         <v>0.5</v>
       </c>
-      <c r="R11" s="26"/>
-    </row>
-    <row r="12" spans="1:19" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:18" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1993,9 +1903,8 @@
       <c r="Q12" s="1">
         <v>1</v>
       </c>
-      <c r="R12" s="26"/>
-    </row>
-    <row r="13" spans="1:19" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:18" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -2045,9 +1954,8 @@
       <c r="Q13" s="1">
         <v>1</v>
       </c>
-      <c r="R13" s="26"/>
-    </row>
-    <row r="14" spans="1:19" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:18" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -2097,9 +2005,8 @@
       <c r="Q14" s="1">
         <v>1</v>
       </c>
-      <c r="R14" s="26"/>
-    </row>
-    <row r="15" spans="1:19" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:18" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
@@ -2149,9 +2056,8 @@
       <c r="Q15" s="1">
         <v>1</v>
       </c>
-      <c r="R15" s="26"/>
-    </row>
-    <row r="16" spans="1:19" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:18" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -2201,9 +2107,8 @@
       <c r="Q16" s="1">
         <v>1</v>
       </c>
-      <c r="R16" s="26"/>
-    </row>
-    <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -2253,9 +2158,8 @@
       <c r="Q17" s="1">
         <v>1</v>
       </c>
-      <c r="R17" s="26"/>
-    </row>
-    <row r="18" spans="1:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
@@ -2305,9 +2209,8 @@
       <c r="Q18" s="1">
         <v>1</v>
       </c>
-      <c r="R18" s="26"/>
-    </row>
-    <row r="19" spans="1:19" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:18" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>32</v>
       </c>
@@ -2357,9 +2260,8 @@
       <c r="Q19" s="1">
         <v>1</v>
       </c>
-      <c r="R19" s="26"/>
-    </row>
-    <row r="20" spans="1:19" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:18" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>34</v>
       </c>
@@ -2409,9 +2311,8 @@
       <c r="Q20" s="1">
         <v>1</v>
       </c>
-      <c r="R20" s="26"/>
-    </row>
-    <row r="21" spans="1:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>36</v>
       </c>
@@ -2429,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H21" s="11" t="s">
         <v>82</v>
@@ -2461,9 +2362,8 @@
       <c r="Q21" s="1">
         <v>0.5</v>
       </c>
-      <c r="R21" s="26"/>
-    </row>
-    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>38</v>
       </c>
@@ -2513,9 +2413,8 @@
       <c r="Q22" s="1">
         <v>1</v>
       </c>
-      <c r="R22" s="26"/>
-    </row>
-    <row r="23" spans="1:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
@@ -2565,12 +2464,11 @@
       <c r="Q23" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1" t="s">
+      <c r="R23" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>43</v>
       </c>
@@ -2620,9 +2518,8 @@
       <c r="Q24" s="1">
         <v>0.5</v>
       </c>
-      <c r="R24" s="26"/>
-    </row>
-    <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>45</v>
       </c>
@@ -2672,9 +2569,8 @@
       <c r="Q25" s="1">
         <v>0.5</v>
       </c>
-      <c r="R25" s="26"/>
-    </row>
-    <row r="26" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
@@ -2724,9 +2620,8 @@
       <c r="Q26" s="1">
         <v>0.5</v>
       </c>
-      <c r="R26" s="26"/>
-    </row>
-    <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>49</v>
       </c>
@@ -2776,9 +2671,8 @@
       <c r="Q27" s="1">
         <v>0.5</v>
       </c>
-      <c r="R27" s="26"/>
-    </row>
-    <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>51</v>
       </c>
@@ -2828,9 +2722,8 @@
       <c r="Q28" s="1">
         <v>1</v>
       </c>
-      <c r="R28" s="26"/>
-    </row>
-    <row r="29" spans="1:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>53</v>
       </c>
@@ -2880,12 +2773,11 @@
       <c r="Q29" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1" t="s">
+      <c r="R29" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>55</v>
       </c>
@@ -2935,12 +2827,11 @@
       <c r="Q30" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1" t="s">
+      <c r="R30" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>57</v>
       </c>
@@ -2990,12 +2881,11 @@
       <c r="Q31" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1" t="s">
+      <c r="R31" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>60</v>
       </c>
@@ -3045,9 +2935,8 @@
       <c r="Q32" s="1">
         <v>1</v>
       </c>
-      <c r="R32" s="26"/>
-    </row>
-    <row r="33" spans="1:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>62</v>
       </c>
@@ -3097,9 +2986,8 @@
       <c r="Q33" s="1">
         <v>1</v>
       </c>
-      <c r="R33" s="26"/>
-    </row>
-    <row r="34" spans="1:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>64</v>
       </c>
@@ -3149,9 +3037,8 @@
       <c r="Q34" s="1">
         <v>0.5</v>
       </c>
-      <c r="R34" s="26"/>
-    </row>
-    <row r="35" spans="1:19" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:18" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>66</v>
       </c>
@@ -3169,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H35" s="11" t="s">
         <v>82</v>
@@ -3195,18 +3082,17 @@
       <c r="O35" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="P35" s="14">
-        <v>1</v>
+      <c r="P35" s="14" t="s">
+        <v>107</v>
       </c>
       <c r="Q35" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1" t="s">
+      <c r="R35" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>69</v>
       </c>
@@ -3256,9 +3142,8 @@
       <c r="Q36" s="1">
         <v>0.5</v>
       </c>
-      <c r="R36" s="26"/>
-    </row>
-    <row r="37" spans="1:19" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:18" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>71</v>
       </c>
@@ -3308,9 +3193,8 @@
       <c r="Q37" s="1">
         <v>0.5</v>
       </c>
-      <c r="R37" s="26"/>
-    </row>
-    <row r="38" spans="1:19" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:18" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>73</v>
       </c>
@@ -3360,9 +3244,8 @@
       <c r="Q38" s="1">
         <v>0.5</v>
       </c>
-      <c r="R38" s="26"/>
-    </row>
-    <row r="39" spans="1:19" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:18" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>75</v>
       </c>
@@ -3380,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H39" s="11" t="s">
         <v>82</v>
@@ -3412,39 +3295,43 @@
       <c r="Q39" s="1">
         <v>0.5</v>
       </c>
-      <c r="R39" s="26"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="S1 G1:G6 G9:G1048576 I1:O1048576">
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+  <conditionalFormatting sqref="R1 G1:G6 G9:G34 I1:O1048576 G36:G1048576">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>$O$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G6 G9:G1048576">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+  <conditionalFormatting sqref="G1:G6 G9:G34 G36:G1048576">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>$G$35</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>$G$23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>$G$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G8">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>$G$35</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>$G$23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>$G$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G8">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>$O$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39 G6 G21">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
